--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3822.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3822.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.401766459577089</v>
+        <v>5.129642486572266</v>
       </c>
       <c r="B1">
-        <v>1.812959399707277</v>
+        <v>4.237920761108398</v>
       </c>
       <c r="C1">
-        <v>2.76420187634879</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>5.958177092575506</v>
+        <v>4.011576175689697</v>
       </c>
       <c r="E1">
-        <v>1.303825872963935</v>
+        <v>2.399283885955811</v>
       </c>
     </row>
   </sheetData>
